--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1653232.079314487</v>
+        <v>1650975.057405404</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836234</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>310.2728106882109</v>
+        <v>248.3805244599232</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>115.5782639430917</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>160.1743669966221</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>342.897090856949</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>197.1732082069919</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>151.5218864977493</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>131.6586392643243</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>257.7714432386829</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.54110646053103</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>76.34924850972946</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>180.675565814335</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>82.72862295074162</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>48.82034114666704</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>36.98868590053351</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>137.5449733400031</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>150.7693670461848</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>36.56944426859009</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2296,7 +2296,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2479,19 +2479,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>35.70635721786086</v>
+        <v>70.8276411951062</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2533,7 +2533,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417135</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>69.760946160085</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>42.15437852346747</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>144.7268717888064</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>187.0447373600073</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734111903</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>30.96411613815152</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>126.3726378979509</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935319</v>
+        <v>178.775724893532</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102226</v>
       </c>
       <c r="D37" t="n">
-        <v>60.46583209260185</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581638</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345258</v>
+        <v>144.364792734526</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706228</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259154</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164205</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>218.4926939877639</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172075</v>
+        <v>285.1555829172076</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>251.0813880354227</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481856</v>
+        <v>285.4667430481857</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006318</v>
+        <v>15.52470693288191</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636894</v>
+        <v>217.5283980636895</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247739</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414546</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.271684480036</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335031</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797653</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140434089</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572814</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124545</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145469</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1640.777806202926</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C2" t="n">
-        <v>1271.815289262514</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="D2" t="n">
-        <v>913.549590655764</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="E2" t="n">
-        <v>527.7613380575197</v>
+        <v>715.8183052563591</v>
       </c>
       <c r="F2" t="n">
-        <v>520.8158373083162</v>
+        <v>304.8324004667515</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1640.777806202926</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1640.777806202926</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>352.67413830922</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>352.67413830922</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>352.67413830922</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>352.67413830922</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>352.67413830922</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
         <v>99.59950625323012</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>388.7731165986622</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>388.7731165986622</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323012</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>352.67413830922</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>352.67413830922</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>352.67413830922</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C5" t="n">
-        <v>825.2129885066831</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D5" t="n">
-        <v>825.2129885066831</v>
+        <v>1133.480191223665</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>747.6919386254203</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,13 +4571,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>368.9169416640003</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>368.9169416640003</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>368.9169416640003</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942401</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942401</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1215.881273373638</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>846.9187564332267</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>488.6530578264762</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.620445413572</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1602.48111343776</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5024,13 +5024,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867998</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5130,16 +5130,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>491.7343098287678</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="C13" t="n">
-        <v>322.7981269008609</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D13" t="n">
-        <v>172.6814874885252</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5215,34 +5215,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.576850674229</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799872</v>
+        <v>1582.157010401899</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>1582.157010401899</v>
       </c>
       <c r="W13" t="n">
-        <v>901.372325557025</v>
+        <v>1582.157010401899</v>
       </c>
       <c r="X13" t="n">
-        <v>673.3827746590075</v>
+        <v>1354.167459503881</v>
       </c>
       <c r="Y13" t="n">
-        <v>673.3827746590075</v>
+        <v>1133.374880360351</v>
       </c>
     </row>
     <row r="14">
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1905.506714936591</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483405</v>
+        <v>2439.038619608516</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542187</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5367,16 +5367,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>823.6560115477722</v>
+        <v>720.6978970137299</v>
       </c>
       <c r="C16" t="n">
-        <v>654.7198286198653</v>
+        <v>720.6978970137299</v>
       </c>
       <c r="D16" t="n">
-        <v>654.7198286198653</v>
+        <v>570.5812576013941</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374722</v>
+        <v>422.668164019001</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374722</v>
+        <v>422.668164019001</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121911</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300489</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5455,31 +5455,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1817.199532956507</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1595.432917526033</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1306.330050651676</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>1051.645562445789</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W16" t="n">
-        <v>1051.645562445789</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X16" t="n">
-        <v>823.6560115477722</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y16" t="n">
-        <v>823.6560115477722</v>
+        <v>902.3463618439696</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5513,46 +5513,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3795.491481009194</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>596.6625674470426</v>
+        <v>411.3871648742116</v>
       </c>
       <c r="C19" t="n">
-        <v>427.7263845191358</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D19" t="n">
-        <v>427.7263845191358</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>279.8132909367426</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>132.9233434388323</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>132.9233434388323</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>132.9233434388323</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,16 +5686,16 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
         <v>1764.65758193153</v>
@@ -5707,16 +5707,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>999.1036114208127</v>
       </c>
       <c r="W19" t="n">
-        <v>999.1036114208126</v>
+        <v>860.1692949157591</v>
       </c>
       <c r="X19" t="n">
-        <v>999.1036114208126</v>
+        <v>632.1797440177418</v>
       </c>
       <c r="Y19" t="n">
-        <v>778.3110322772825</v>
+        <v>411.3871648742116</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
@@ -5753,25 +5753,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364129</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,28 +5829,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>692.8920075170267</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="C22" t="n">
-        <v>523.9558245891199</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="D22" t="n">
-        <v>487.0169919945844</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E22" t="n">
-        <v>339.1038984121913</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F22" t="n">
-        <v>339.1038984121913</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5911,10 +5911,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1163.957642384227</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>874.5404723472665</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X22" t="n">
-        <v>874.5404723472665</v>
+        <v>709.686441383852</v>
       </c>
       <c r="Y22" t="n">
-        <v>874.5404723472665</v>
+        <v>709.686441383852</v>
       </c>
     </row>
     <row r="23">
@@ -5993,22 +5993,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>1941.005908766397</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6066,13 +6066,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>425.7583423057185</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="C25" t="n">
-        <v>425.7583423057185</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="D25" t="n">
-        <v>389.6913148129298</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E25" t="n">
-        <v>241.7782212305366</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6148,10 +6148,10 @@
         <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1163.957642384227</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W25" t="n">
-        <v>874.540472347266</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X25" t="n">
-        <v>646.5509214492487</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y25" t="n">
-        <v>425.7583423057185</v>
+        <v>481.6968904858346</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6221,37 +6221,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>301.0727330329187</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>634.8921067227652</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1085.926319971174</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2064.476622801003</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3044.228895027649</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906986</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
         <v>4461.783306331038</v>
@@ -6300,16 +6300,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.3589007221992</v>
+        <v>771.1140605227952</v>
       </c>
       <c r="C28" t="n">
-        <v>560.3589007221992</v>
+        <v>602.1778775948883</v>
       </c>
       <c r="D28" t="n">
-        <v>410.2422613098635</v>
+        <v>452.0612381825525</v>
       </c>
       <c r="E28" t="n">
-        <v>410.2422613098635</v>
+        <v>452.0612381825525</v>
       </c>
       <c r="F28" t="n">
-        <v>263.3523138119531</v>
+        <v>452.0612381825525</v>
       </c>
       <c r="G28" t="n">
-        <v>263.3523138119531</v>
+        <v>284.3584015572715</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>138.1412147751292</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W28" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="X28" t="n">
-        <v>962.7999446959689</v>
+        <v>771.1140605227952</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.007365552439</v>
+        <v>771.1140605227952</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L29" t="n">
-        <v>1586.925993846824</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2120.457898518748</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.236715577531</v>
+        <v>3297.750360443164</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604875</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>391.8664332433629</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="C31" t="n">
-        <v>245.6776738607302</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6628,7 +6628,7 @@
         <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X31" t="n">
-        <v>391.8664332433629</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="Y31" t="n">
-        <v>391.8664332433629</v>
+        <v>520.752363242431</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L32" t="n">
-        <v>1971.087962216428</v>
+        <v>1472.533259768728</v>
       </c>
       <c r="M32" t="n">
-        <v>2504.619866888353</v>
+        <v>2006.065164440653</v>
       </c>
       <c r="N32" t="n">
-        <v>3051.398683947135</v>
+        <v>2985.817436667299</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996752</v>
+        <v>3865.782086996754</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.55645335393</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604875</v>
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549554</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.2832138409321</v>
+        <v>391.8664332433619</v>
       </c>
       <c r="C34" t="n">
-        <v>814.3470309130253</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D34" t="n">
-        <v>664.2303915006895</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E34" t="n">
-        <v>516.3172979182964</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F34" t="n">
-        <v>369.427350420386</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689059</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689059</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U34" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1385.724257814702</v>
+        <v>909.2731541783401</v>
       </c>
       <c r="W34" t="n">
-        <v>1385.724257814702</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.724257814702</v>
+        <v>391.8664332433619</v>
       </c>
       <c r="Y34" t="n">
-        <v>1164.931678671172</v>
+        <v>391.8664332433619</v>
       </c>
     </row>
     <row r="35">
@@ -6914,49 +6914,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622687</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294612</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353394</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7014,16 +7014,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390103</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193577</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320232</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008794</v>
@@ -7038,10 +7038,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>761.092998874485</v>
+        <v>409.2533158067263</v>
       </c>
       <c r="C37" t="n">
-        <v>761.092998874485</v>
+        <v>241.384057412562</v>
       </c>
       <c r="D37" t="n">
-        <v>700.0164008011499</v>
+        <v>241.384057412562</v>
       </c>
       <c r="E37" t="n">
-        <v>553.1702317524995</v>
+        <v>241.384057412562</v>
       </c>
       <c r="F37" t="n">
-        <v>407.347208788332</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>240.7112966967938</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308514</v>
+        <v>141.7293596308512</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152492</v>
+        <v>346.7622353152489</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992668</v>
+        <v>664.3677264992662</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834337</v>
+        <v>1009.570464834336</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275723</v>
+        <v>1352.024534275722</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931658</v>
+        <v>1652.399825931657</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100839</v>
+        <v>1886.053019100837</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988875</v>
+        <v>1964.709007988873</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988875</v>
+        <v>1875.945475280144</v>
       </c>
       <c r="S37" t="n">
-        <v>1964.709007988875</v>
+        <v>1875.945475280144</v>
       </c>
       <c r="T37" t="n">
-        <v>1964.709007988875</v>
+        <v>1655.245784383413</v>
       </c>
       <c r="U37" t="n">
-        <v>1676.673065648262</v>
+        <v>1367.209842042799</v>
       </c>
       <c r="V37" t="n">
-        <v>1676.673065648262</v>
+        <v>1113.592278370655</v>
       </c>
       <c r="W37" t="n">
-        <v>1388.322820145044</v>
+        <v>825.2420328674369</v>
       </c>
       <c r="X37" t="n">
-        <v>1161.400193780769</v>
+        <v>809.5605107130107</v>
       </c>
       <c r="Y37" t="n">
-        <v>941.6745391709819</v>
+        <v>589.8348561032233</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089256</v>
@@ -7172,19 +7172,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277731</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K38" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811482</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
         <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542189</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7284,7 +7284,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C40" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,49 +7333,49 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490198</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499227</v>
+        <v>800.7468040499226</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N40" t="n">
-        <v>1579.32299686015</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O40" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P40" t="n">
-        <v>2204.270866719036</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123958</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604459</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122058</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195775</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849074</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.05694589913</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215069</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416734</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.361611377411</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430915</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932522</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,49 +7570,49 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499226</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N43" t="n">
-        <v>1579.322996860149</v>
+        <v>1579.32299686015</v>
       </c>
       <c r="O43" t="n">
-        <v>1925.157981032969</v>
+        <v>1925.15798103297</v>
       </c>
       <c r="P43" t="n">
-        <v>2204.270866719035</v>
+        <v>2204.270866719036</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829559</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122058</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195775</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849074</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.05694589913</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036719</v>
+        <v>922.7139997036733</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,25 +7646,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2183.715908442899</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N44" t="n">
-        <v>2730.494725501681</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O44" t="n">
-        <v>3610.459375831136</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P44" t="n">
-        <v>4323.814463278081</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
         <v>4719.034655862919</v>
@@ -7676,22 +7676,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7701,64 +7701,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215055</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416719</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7810,7 +7810,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7846,10 +7846,10 @@
         <v>1276.596863849073</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>258.6211785616945</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>351.4175304294036</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9170,22 +9170,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>283.3156027685499</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,28 +9401,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>64.28566532692525</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,25 +9641,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>341.5962138876744</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400261</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>16.80057335908978</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,13 +9887,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>29.61882225792135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>292.5685715191229</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,19 +10349,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>238.2160185885865</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>314.5564971416961</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>-1.426747608945789e-12</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476824</v>
+        <v>295.4822118493981</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476826</v>
+        <v>344.7025836476831</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,19 +11303,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>148.4180109385407</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>70.08471413683971</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>105.5362723912779</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>83.2971853082866</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>140.9486841847749</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>59.36373450930458</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>148.9780249965879</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>29.06261313575254</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>112.0460287496223</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>112.9091158003515</v>
+        <v>77.78783182310616</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>74.99406875423578</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>54.19804188637062</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>22.51994930982142</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.53991599208751</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>136.2827049604763</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>39.65317036107736</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25126,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102224</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>87.09338563720509</v>
+        <v>147.5592177298071</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581639</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9695529706229</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>143.6987596259155</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143267</v>
+        <v>95.29616512143282</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25357,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164189</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430365</v>
+        <v>188.7127700430366</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877638</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354226</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>209.12869316775</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-6.963318810448982e-13</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-2.287947609147523e-12</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>910789.5988852222</v>
+        <v>910789.5988852223</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>910789.5988852223</v>
+        <v>910789.5988852222</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>941027.5694868289</v>
+        <v>941027.569486829</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651773</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
         <v>496352.2336087288</v>
       </c>
       <c r="F2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087287</v>
       </c>
       <c r="G2" t="n">
         <v>496352.2336087288</v>
       </c>
       <c r="H2" t="n">
-        <v>496352.2336087288</v>
+        <v>496352.233608729</v>
       </c>
       <c r="I2" t="n">
         <v>496352.2336087289</v>
       </c>
       <c r="J2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087291</v>
       </c>
       <c r="K2" t="n">
-        <v>496352.2336087289</v>
+        <v>496352.2336087286</v>
       </c>
       <c r="L2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="M2" t="n">
-        <v>496729.9631749264</v>
+        <v>496729.9631749263</v>
       </c>
       <c r="N2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="O2" t="n">
-        <v>513151.1061651766</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="P2" t="n">
         <v>513151.1061651765</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25168002746068e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>130487.3190696691</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414971</v>
+        <v>36735.10506415</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918986</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811453</v>
+        <v>18496.05294811448</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740901</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740902</v>
       </c>
     </row>
     <row r="5">
@@ -26476,31 +26476,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371367</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955462</v>
+        <v>96472.31657955459</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-343024.5379699051</v>
+        <v>-343024.5379699052</v>
       </c>
       <c r="C6" t="n">
-        <v>246943.3412446392</v>
+        <v>246943.3412446398</v>
       </c>
       <c r="D6" t="n">
         <v>246943.3412446399</v>
       </c>
       <c r="E6" t="n">
-        <v>-345557.1909575814</v>
+        <v>-345624.3864478073</v>
       </c>
       <c r="F6" t="n">
-        <v>381820.2230358253</v>
+        <v>381753.0275455993</v>
       </c>
       <c r="G6" t="n">
-        <v>381820.2230358252</v>
+        <v>381753.0275455994</v>
       </c>
       <c r="H6" t="n">
-        <v>381820.2230358252</v>
+        <v>381753.0275455996</v>
       </c>
       <c r="I6" t="n">
-        <v>381820.2230358253</v>
+        <v>381753.0275455995</v>
       </c>
       <c r="J6" t="n">
-        <v>205397.0038432323</v>
+        <v>205329.8083530068</v>
       </c>
       <c r="K6" t="n">
-        <v>381820.2230358253</v>
+        <v>381753.0275455992</v>
       </c>
       <c r="L6" t="n">
-        <v>381820.2230358251</v>
+        <v>381753.0275455996</v>
       </c>
       <c r="M6" t="n">
-        <v>251274.2745775881</v>
+        <v>251208.5900056272</v>
       </c>
       <c r="N6" t="n">
-        <v>342477.676789516</v>
+        <v>342477.6767895155</v>
       </c>
       <c r="O6" t="n">
-        <v>379212.7818536658</v>
+        <v>379212.7818536656</v>
       </c>
       <c r="P6" t="n">
         <v>379212.7818536654</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26765,10 +26765,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593299</v>
@@ -26932,16 +26932,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018713</v>
+        <v>45.9188813301873</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,19 +26981,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>103.511359332584</v>
+        <v>165.4036455608718</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>51.73153831595918</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>51.97117195339681</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>39.0332792153128</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>209.7028375347195</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>28.31009368418805</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>14.77532338224492</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>124.1589268335789</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-2.025899448199198e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405405</v>
+        <v>1.05625528840527</v>
       </c>
     </row>
     <row r="38">
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859264</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026424</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,43 +33807,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
         <v>168.89895979748</v>
@@ -33895,31 +33895,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
         <v>19.17787942451121</v>
@@ -33968,43 +33968,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752261</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,19 +34047,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742022</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
         <v>300.7247737883116</v>
@@ -34074,13 +34074,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34954,7 +34954,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>766.6741794499135</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443195</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>807.0076448217358</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443195</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
@@ -35890,22 +35890,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>682.0775889879218</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>616.5875007398367</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>880.5173297179011</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282451</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>207.5875743278023</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36607,13 +36607,13 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597715</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>485.2089366502535</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>844.8704069320344</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427828</v>
+        <v>693.8061329809184</v>
       </c>
       <c r="M32" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>822.6094980299156</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306628</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>800.2926980400148</v>
+        <v>751.0723262417303</v>
       </c>
       <c r="M35" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882195</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597567</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147168</v>
+        <v>46.63467190147152</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327251</v>
+        <v>207.1039148327249</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586037</v>
+        <v>320.8136274586034</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818893</v>
+        <v>348.6896346818891</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559456</v>
+        <v>345.9132014559453</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110453</v>
+        <v>303.4093855110451</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335159</v>
+        <v>236.0133264335157</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629912</v>
+        <v>79.45049382629892</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908547</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152073</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629122</v>
@@ -37707,10 +37707,10 @@
         <v>366.7325087887908</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412324</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165887</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637031</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>399.2123157422602</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38181,7 +38181,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
